--- a/Clue_LayoutTestLocationsForPartII.xlsx
+++ b/Clue_LayoutTestLocationsForPartII.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,7 +1154,7 @@
       <c r="S8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -1861,7 +1861,7 @@
       <c r="G18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">

--- a/Clue_LayoutTestLocationsForPartII.xlsx
+++ b/Clue_LayoutTestLocationsForPartII.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="32">
   <si>
     <t>w</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Magenta: Targets for leaving room</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>JL</t>
   </si>
 </sst>
 </file>
@@ -241,6 +247,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,14 +1240,14 @@
       <c r="S9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>17</v>
+      <c r="T9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>0</v>
@@ -1305,17 +1314,17 @@
       <c r="S10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>17</v>
+      <c r="T10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X10">
         <v>9</v>
@@ -1379,17 +1388,17 @@
       <c r="S11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>17</v>
+      <c r="T11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X11">
         <v>10</v>
@@ -1453,17 +1462,17 @@
       <c r="S12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>17</v>
+      <c r="T12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X12">
         <v>11</v>
@@ -1527,17 +1536,17 @@
       <c r="S13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>17</v>
+      <c r="T13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X13">
         <v>12</v>
@@ -1601,17 +1610,17 @@
       <c r="S14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>17</v>
+      <c r="T14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X14">
         <v>13</v>
@@ -1675,17 +1684,17 @@
       <c r="S15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>17</v>
+      <c r="T15" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X15">
         <v>14</v>
@@ -1749,14 +1758,14 @@
       <c r="S16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>17</v>
+      <c r="T16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>0</v>
